--- a/proposal/bear_gantt_chart.xlsx
+++ b/proposal/bear_gantt_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradburd/Dropbox/howmanybears/howmanybears/proposal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bburd/Dropbox/howmanybears/howmanybears/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04069ED4-A9ED-DA41-BD7F-5F937355A1C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B76CD1E-38A8-F646-B2DD-530653C851EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27460" yWindow="7100" windowWidth="17440" windowHeight="11420" xr2:uid="{BBF341F9-B595-1743-902A-F34CD746009B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{BBF341F9-B595-1743-902A-F34CD746009B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,13 +118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,10 +379,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,62 +388,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -767,531 +767,531 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="3.83203125" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="41.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="3.83203125" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="20">
         <v>2020</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21">
         <v>2021</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21">
         <v>2022</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="10"/>
-    </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="22"/>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="13"/>
-    </row>
-    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="21"/>
-    </row>
-    <row r="5" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="26"/>
+    </row>
+    <row r="5" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="11"/>
+    </row>
+    <row r="6" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="21"/>
-    </row>
-    <row r="7" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26"/>
+    </row>
+    <row r="7" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="15"/>
-    </row>
-    <row r="8" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="11"/>
+    </row>
+    <row r="8" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="21"/>
-    </row>
-    <row r="9" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="15"/>
-    </row>
-    <row r="10" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="21"/>
-    </row>
-    <row r="11" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="15"/>
-    </row>
-    <row r="12" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="21"/>
-    </row>
-    <row r="13" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26"/>
+    </row>
+    <row r="13" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="15"/>
-    </row>
-    <row r="14" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="21"/>
-    </row>
-    <row r="15" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="26"/>
+    </row>
+    <row r="15" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="15"/>
-    </row>
-    <row r="16" spans="1:25" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="1:25" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
